--- a/receivers.xlsx
+++ b/receivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\groupmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D9CE03-59B4-48D6-AE01-B8D88F0E6C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA10CD-DA4E-4498-BF10-2FA4ED828CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DC37BF8-F72A-4524-AB59-EDE3209101B9}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>排序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>邮箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -52,6 +48,10 @@
   </si>
   <si>
     <t>刘存展1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -454,32 +454,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
